--- a/Main/triTest.xlsx
+++ b/Main/triTest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Percentage Error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Pass/Fail</t>
         </is>
       </c>
@@ -461,12 +466,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5000000000000299,0.5000000000001981</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>0.5000000000057143,0.19999999999224918</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02073315838368e-09</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/Main/triTest.xlsx
+++ b/Main/triTest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,18 +461,363 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0.1,0.1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.100,0.100</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.191621478626203e-13</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.3,0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.300,0.100</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3.201513471147197e-10</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.5,0.1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.500,0.100</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7.355212827730717e-15</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.7,0.1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.700,0.100</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2.297701973494475e-10</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.1,0.2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.100,0.200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.160736694046937e-15</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.3,0.2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.300,0.200</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4.097850405038351e-13</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>0.5,0.2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.5000000000057143,0.19999999999224918</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.500,0.200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1.02073315838368e-09</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.7,0.2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.700,0.200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.315740469742747e-14</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.1,0.3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.100,0.300</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.417095854596252e-13</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.3,0.3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.300,0.300</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.241267076623637e-13</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.5,0.3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.500,0.300</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.634910115835707e-13</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.7,0.3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.700,0.300</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>9.226408992333415e-12</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.1,0.4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.100,0.400</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.492757326462858e-09</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.3,0.4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.300,0.400</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.704125701145699e-10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.5,0.4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.500,0.400</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.872793759337749e-13</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.7,0.4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.700,0.400</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2.336196069587447e-10</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
